--- a/数据整理/stocks/A股/上证主板/603136-天目湖.xlsx
+++ b/数据整理/stocks/A股/上证主板/603136-天目湖.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.18</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.68</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4427</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008167</t>
+          <t>005526</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信消费行业股票C</t>
+          <t>工银瑞信新生代消费灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>29.86</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.82</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005526</t>
+          <t>008167</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信新生代消费灵活配置混合</t>
+          <t>工银瑞信消费行业股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.28</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>69.68</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.58</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003799</t>
+          <t>001445</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安新泰利灵活配置混合A</t>
+          <t>华安国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.60</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003800</t>
+          <t>008166</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安新泰利灵活配置混合C</t>
+          <t>工银瑞信消费行业股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.60</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002005</t>
+          <t>003799</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信新得利混合</t>
+          <t>华安新泰利灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>29.90</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005526</t>
+          <t>002005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信新生代消费灵活配置混合</t>
+          <t>工银瑞信新得利混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -790,26 +900,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>290008</t>
+          <t>005526</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰信发展主题混合</t>
+          <t>工银瑞信新生代消费灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>85.30</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -818,26 +938,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001282</t>
+          <t>008167</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安新机遇灵活配置混合</t>
+          <t>工银瑞信消费行业股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21.45</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -846,26 +976,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001445</t>
+          <t>290008</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安国企改革主题灵活配置混合</t>
+          <t>泰信发展主题混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>78.53</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -884,15 +1024,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>86.01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.77</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -912,15 +1062,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>80.58</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2.95</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008166</t>
+          <t>003800</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>工银瑞信消费行业股票A</t>
+          <t>华安新泰利灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008167</t>
+          <t>001282</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>工银瑞信消费行业股票C</t>
+          <t>华安新机遇灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603136-天目湖.xlsx
+++ b/数据整理/stocks/A股/上证主板/603136-天目湖.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603136-天目湖.xlsx
+++ b/数据整理/stocks/A股/上证主板/603136-天目湖.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1258,4 +1259,134 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603136-天目湖.xlsx
+++ b/数据整理/stocks/A股/上证主板/603136-天目湖.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1389,4 +1390,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603136-天目湖.xlsx
+++ b/数据整理/stocks/A股/上证主板/603136-天目湖.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1398,7 +1399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1409,17 +1410,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1429,14 +1450,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1445,14 +1488,102 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -1461,14 +1592,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.85</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5">
@@ -1477,13 +1608,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603136-天目湖.xlsx
+++ b/数据整理/stocks/A股/上证主板/603136-天目湖.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1529,7 +1530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1540,17 +1541,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1560,14 +1581,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1576,14 +1619,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1592,14 +1657,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.18</v>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1608,14 +1695,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.85</v>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1624,13 +1733,317 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603136-天目湖.xlsx
+++ b/数据整理/stocks/A股/上证主板/603136-天目湖.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1926,7 +1927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1937,17 +1938,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1957,14 +1978,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.34</v>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1973,14 +2016,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1989,14 +2054,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2005,14 +2092,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.18</v>
+          <t>010257</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘多利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2021,14 +2130,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.85</v>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2037,13 +2168,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001447</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘惠利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603136-天目湖.xlsx
+++ b/数据整理/stocks/A股/上证主板/603136-天目湖.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,243 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008166</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信消费行业股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4427</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005526</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信新生代消费灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.28</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3041</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D6" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002005</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信新得利混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>29.86</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1906</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008167</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信消费行业股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0618</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005585</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银河文体娱乐主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>69.68</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.02</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -703,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -754,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001445</t>
+          <t>290012</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安国企改革主题灵活配置混合</t>
+          <t>泰信行业精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.53</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2595</t>
+          <t>0.0489</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -792,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008166</t>
+          <t>011471</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信消费行业股票A</t>
+          <t>鹏华致远成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.17</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>69.57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2538</t>
+          <t>0.0484</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -830,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003799</t>
+          <t>002681</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安新泰利灵活配置混合A</t>
+          <t>金鹰元和灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22.60</t>
+          <t>87.46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0813</t>
+          <t>0.0328</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -868,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002005</t>
+          <t>010257</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信新得利混合</t>
+          <t>天弘多利一年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>29.90</t>
+          <t>20.63</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0793</t>
+          <t>0.0245</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -906,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005526</t>
+          <t>002682</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信新生代消费灵活配置混合</t>
+          <t>金鹰元和灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>87.46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0640</t>
+          <t>0.0142</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -944,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008167</t>
+          <t>001447</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银瑞信消费行业股票C</t>
+          <t>天弘惠利灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>21.60</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0467</t>
+          <t>0.0119</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -982,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>290008</t>
+          <t>011472</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰信发展主题混合</t>
+          <t>鹏华致远成长混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.30</t>
+          <t>69.57</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0185</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1020,150 +922,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001978</t>
+          <t>002583</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰信互联网+主题灵活配置混合</t>
+          <t>泰信行业精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>86.01</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0185</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002181</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华安大安全主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>80.58</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003800</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华安新泰利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>22.60</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001282</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华安新机遇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>21.45</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1177,7 +965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,7 +986,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1228,36 +1016,338 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001445</t>
+          <t>004350</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安国企改革主题灵活配置混合</t>
+          <t>汇丰晋信价值先锋股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1847</t>
+          <t>0.1422</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1292,7 +1382,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1332,26 +1422,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0289</t>
+          <t>0.0319</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1375,19 +1465,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +1512,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1462,26 +1552,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0319</t>
+          <t>0.0289</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1505,19 +1595,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1531,7 +1621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1552,7 +1642,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1582,338 +1672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004350</t>
+          <t>001445</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信价值先锋股票</t>
+          <t>华安国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1422</t>
+          <t>0.1847</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004206</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华商元亨灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>29.94</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0919</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>290012</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0498</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002681</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>金鹰元和灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>81.63</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0232</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002682</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>金鹰元和灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>81.63</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008135</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宸未来价值先锋混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.99</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001448</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华商双翼平衡混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>39.74</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004456</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>兴银消费新趋势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>82.19</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002583</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1927,7 +1715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1948,7 +1736,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1978,36 +1766,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>290012</t>
+          <t>001445</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰信行业精选灵活配置混合A</t>
+          <t>华安国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>78.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0489</t>
+          <t>0.2595</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2016,36 +1804,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011471</t>
+          <t>008166</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华致远成长混合A</t>
+          <t>工银瑞信消费行业股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>69.57</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0484</t>
+          <t>0.2538</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2054,36 +1842,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002681</t>
+          <t>003799</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰元和灵活配置混合A</t>
+          <t>华安新泰利灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.46</t>
+          <t>22.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0328</t>
+          <t>0.0813</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2092,36 +1880,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010257</t>
+          <t>002005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘多利一年定期开放混合</t>
+          <t>工银瑞信新得利混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20.63</t>
+          <t>29.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0245</t>
+          <t>0.0793</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2130,36 +1918,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002682</t>
+          <t>005526</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金鹰元和灵活配置混合C</t>
+          <t>工银瑞信新生代消费灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.46</t>
+          <t>92.81</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0142</t>
+          <t>0.0640</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2168,36 +1956,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001447</t>
+          <t>008167</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天弘惠利灵活配置混合</t>
+          <t>工银瑞信消费行业股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21.60</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0119</t>
+          <t>0.0467</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2206,36 +1994,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011472</t>
+          <t>290008</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华致远成长混合C</t>
+          <t>泰信发展主题混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>69.57</t>
+          <t>85.30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -2244,36 +2032,150 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002583</t>
+          <t>001978</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰信行业精选灵活配置混合C</t>
+          <t>泰信互联网+主题灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>86.01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2287,144 +2189,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>008166</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4427</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008167</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.02</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603136-天目湖.xlsx
+++ b/数据整理/stocks/A股/上证主板/603136-天目湖.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.18</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +537,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.85</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.02</v>
       </c>
     </row>
@@ -600,6 +617,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2107</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000398</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +1260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1348,136 +1649,6 @@
       </c>
       <c r="H10" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>290012</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0319</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002583</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.35</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1512,7 +1683,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1552,26 +1723,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0289</t>
+          <t>0.0319</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1595,19 +1766,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1616,6 +1787,136 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1709,7 +2010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2183,7 +2484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603136-天目湖.xlsx
+++ b/数据整理/stocks/A股/上证主板/603136-天目湖.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.29</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="6">
@@ -553,7 +554,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.85</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.02</v>
       </c>
     </row>
@@ -616,7 +633,385 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008166</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4427</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008167</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>42.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>42.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -900,7 +1295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1260,7 +1655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1649,136 +2044,6 @@
       </c>
       <c r="H10" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>290012</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0319</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002583</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.35</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1813,7 +2078,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1853,26 +2118,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0289</t>
+          <t>0.0319</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1896,19 +2161,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1917,6 +2182,136 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2010,7 +2405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2482,250 +2877,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008166</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信消费行业股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4427</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005526</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信新生代消费灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.28</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3041</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002005</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信新得利混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>29.86</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1906</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008167</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信消费行业股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0618</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005585</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银河文体娱乐主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>69.68</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>